--- a/Busan_Univ/부산대 2022.xlsx
+++ b/Busan_Univ/부산대 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almini/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almini/Documents/vscode/Project/Busan_Univ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D33F679-22E2-0144-8FA7-A791509B3D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA1F320-D94C-F041-82FF-FC44FBBAFC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{DBD87924-872F-6046-815E-2C2C92919E94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="157">
   <si>
     <t>중어중문학과</t>
   </si>
@@ -317,10 +317,6 @@
   </si>
   <si>
     <t>최종추합번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환산 표준편차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -947,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E48BCF-192D-7548-A8AF-6426D46520B3}">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -960,7 +956,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>82</v>
@@ -981,21 +977,18 @@
         <v>87</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>134</v>
+      <c r="J1" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>63</v>
@@ -1021,17 +1014,14 @@
       <c r="I2" s="2">
         <v>700</v>
       </c>
-      <c r="J2" s="2">
-        <v>6.86</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>135</v>
+      <c r="J2" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
@@ -1057,17 +1047,14 @@
       <c r="I3" s="2">
         <v>689.5</v>
       </c>
-      <c r="J3" s="2">
-        <v>3.11</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>135</v>
+      <c r="J3" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>37</v>
@@ -1093,17 +1080,14 @@
       <c r="I4" s="2">
         <v>691.5</v>
       </c>
-      <c r="J4" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>135</v>
+      <c r="J4" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>38</v>
@@ -1129,17 +1113,14 @@
       <c r="I5" s="2">
         <v>686.25</v>
       </c>
-      <c r="J5" s="2">
-        <v>4.91</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>135</v>
+      <c r="J5" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>39</v>
@@ -1165,17 +1146,14 @@
       <c r="I6" s="2">
         <v>685.5</v>
       </c>
-      <c r="J6" s="2">
-        <v>2.84</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>135</v>
+      <c r="J6" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>58</v>
@@ -1201,20 +1179,17 @@
       <c r="I7" s="2">
         <v>698.25</v>
       </c>
-      <c r="J7" s="2">
-        <v>5.36</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>135</v>
+      <c r="J7" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2">
         <v>33</v>
@@ -1229,7 +1204,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H8" s="2">
         <v>691.27</v>
@@ -1237,17 +1212,14 @@
       <c r="I8" s="2">
         <v>688.75</v>
       </c>
-      <c r="J8" s="2">
-        <v>13.53</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>133</v>
+      <c r="J8" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -1273,20 +1245,17 @@
       <c r="I9" s="2">
         <v>682.75</v>
       </c>
-      <c r="J9" s="2">
-        <v>1.99</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>135</v>
+      <c r="J9" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2">
         <v>16</v>
@@ -1309,17 +1278,14 @@
       <c r="I10" s="2">
         <v>697.6</v>
       </c>
-      <c r="J10" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>133</v>
+      <c r="J10" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>62</v>
@@ -1345,17 +1311,14 @@
       <c r="I11" s="2">
         <v>697.25</v>
       </c>
-      <c r="J11" s="2">
-        <v>4.22</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>135</v>
+      <c r="J11" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>60</v>
@@ -1381,20 +1344,17 @@
       <c r="I12" s="2">
         <v>689.25</v>
       </c>
-      <c r="J12" s="2">
-        <v>14.75</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>135</v>
+      <c r="J12" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2">
         <v>18</v>
@@ -1417,17 +1377,14 @@
       <c r="I13" s="2">
         <v>688.5</v>
       </c>
-      <c r="J13" s="2">
-        <v>3.12</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>133</v>
+      <c r="J13" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>46</v>
@@ -1453,17 +1410,14 @@
       <c r="I14" s="2">
         <v>687.75</v>
       </c>
-      <c r="J14" s="2">
-        <v>5.05</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>135</v>
+      <c r="J14" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
@@ -1489,20 +1443,17 @@
       <c r="I15" s="2">
         <v>698</v>
       </c>
-      <c r="J15" s="2">
-        <v>4.74</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>135</v>
+      <c r="J15" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2">
         <v>11</v>
@@ -1525,20 +1476,17 @@
       <c r="I16" s="2">
         <v>689</v>
       </c>
-      <c r="J16" s="2">
-        <v>4.28</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>133</v>
+      <c r="J16" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="2">
         <v>117</v>
@@ -1553,7 +1501,7 @@
         <v>115</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" s="2">
         <v>702.47</v>
@@ -1561,17 +1509,14 @@
       <c r="I17" s="2">
         <v>699</v>
       </c>
-      <c r="J17" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>133</v>
+      <c r="J17" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>77</v>
@@ -1597,20 +1542,17 @@
       <c r="I18" s="2">
         <v>695</v>
       </c>
-      <c r="J18" s="2">
-        <v>2.91</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>135</v>
+      <c r="J18" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2">
         <v>16</v>
@@ -1633,17 +1575,14 @@
       <c r="I19" s="2">
         <v>687.5</v>
       </c>
-      <c r="J19" s="2">
-        <v>2.23</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>133</v>
+      <c r="J19" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -1669,17 +1608,14 @@
       <c r="I20" s="2">
         <v>680.75</v>
       </c>
-      <c r="J20" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>135</v>
+      <c r="J20" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -1705,17 +1641,14 @@
       <c r="I21" s="2">
         <v>689</v>
       </c>
-      <c r="J21" s="2">
-        <v>1.73</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>135</v>
+      <c r="J21" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>6</v>
@@ -1741,17 +1674,14 @@
       <c r="I22" s="2">
         <v>681.5</v>
       </c>
-      <c r="J22" s="2">
-        <v>4.21</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>135</v>
+      <c r="J22" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>72</v>
@@ -1777,17 +1707,14 @@
       <c r="I23" s="2">
         <v>653</v>
       </c>
-      <c r="J23" s="2">
-        <v>7.02</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>135</v>
+      <c r="J23" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>69</v>
@@ -1813,20 +1740,17 @@
       <c r="I24" s="2">
         <v>692</v>
       </c>
-      <c r="J24" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>135</v>
+      <c r="J24" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="2">
         <v>35</v>
@@ -1841,7 +1765,7 @@
         <v>34</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H25" s="2">
         <v>687.1</v>
@@ -1849,17 +1773,14 @@
       <c r="I25" s="2">
         <v>688</v>
       </c>
-      <c r="J25" s="2">
-        <v>11.67</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>133</v>
+      <c r="J25" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
@@ -1885,17 +1806,14 @@
       <c r="I26" s="2">
         <v>684.75</v>
       </c>
-      <c r="J26" s="2">
-        <v>7.17</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>135</v>
+      <c r="J26" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>54</v>
@@ -1921,17 +1839,14 @@
       <c r="I27" s="2">
         <v>688.5</v>
       </c>
-      <c r="J27" s="2">
-        <v>5.62</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>135</v>
+      <c r="J27" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>19</v>
@@ -1957,17 +1872,14 @@
       <c r="I28" s="2">
         <v>686</v>
       </c>
-      <c r="J28" s="2">
-        <v>3.68</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>135</v>
+      <c r="J28" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
@@ -1993,17 +1905,14 @@
       <c r="I29" s="2">
         <v>694.25</v>
       </c>
-      <c r="J29" s="2">
-        <v>3.71</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>135</v>
+      <c r="J29" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>20</v>
@@ -2029,17 +1938,14 @@
       <c r="I30" s="2">
         <v>688.5</v>
       </c>
-      <c r="J30" s="2">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>135</v>
+      <c r="J30" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
@@ -2065,17 +1971,14 @@
       <c r="I31" s="2">
         <v>670.5</v>
       </c>
-      <c r="J31" s="2">
-        <v>4.07</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>135</v>
+      <c r="J31" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>73</v>
@@ -2101,17 +2004,14 @@
       <c r="I32" s="2">
         <v>670</v>
       </c>
-      <c r="J32" s="2">
-        <v>5.82</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>135</v>
+      <c r="J32" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>75</v>
@@ -2137,17 +2037,14 @@
       <c r="I33" s="2">
         <v>661.5</v>
       </c>
-      <c r="J33" s="2">
-        <v>6.91</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>135</v>
+      <c r="J33" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
@@ -2173,17 +2070,14 @@
       <c r="I34" s="2">
         <v>688</v>
       </c>
-      <c r="J34" s="2">
-        <v>5.87</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>135</v>
+      <c r="J34" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>44</v>
@@ -2205,15 +2099,14 @@
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="4" t="s">
-        <v>135</v>
+      <c r="J35" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
@@ -2239,20 +2132,17 @@
       <c r="I36" s="2">
         <v>683</v>
       </c>
-      <c r="J36" s="2">
-        <v>3.73</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>135</v>
+      <c r="J36" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="2">
         <v>10</v>
@@ -2275,17 +2165,14 @@
       <c r="I37" s="2">
         <v>683.5</v>
       </c>
-      <c r="J37" s="2">
-        <v>3.81</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>133</v>
+      <c r="J37" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>14</v>
@@ -2311,20 +2198,17 @@
       <c r="I38" s="2">
         <v>676.75</v>
       </c>
-      <c r="J38" s="2">
-        <v>6.27</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>135</v>
+      <c r="J38" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="2">
         <v>16</v>
@@ -2339,7 +2223,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H39" s="2">
         <v>691.17</v>
@@ -2347,17 +2231,14 @@
       <c r="I39" s="2">
         <v>690.25</v>
       </c>
-      <c r="J39" s="2">
-        <v>2.59</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>133</v>
+      <c r="J39" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>41</v>
@@ -2383,20 +2264,17 @@
       <c r="I40" s="2">
         <v>693</v>
       </c>
-      <c r="J40" s="2">
-        <v>6.83</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>135</v>
+      <c r="J40" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" s="2">
         <v>15</v>
@@ -2419,20 +2297,17 @@
       <c r="I41" s="2">
         <v>696.5</v>
       </c>
-      <c r="J41" s="2">
-        <v>7.91</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>133</v>
+      <c r="J41" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" s="2">
         <v>11</v>
@@ -2447,7 +2322,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H42" s="2">
         <v>668.65</v>
@@ -2455,17 +2330,14 @@
       <c r="I42" s="2">
         <v>665.5</v>
       </c>
-      <c r="J42" s="2">
-        <v>5.47</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>133</v>
+      <c r="J42" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>56</v>
@@ -2491,20 +2363,17 @@
       <c r="I43" s="2">
         <v>689.5</v>
       </c>
-      <c r="J43" s="2">
-        <v>6.25</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>135</v>
+      <c r="J43" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2">
         <v>23</v>
@@ -2519,7 +2388,7 @@
         <v>22</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H44" s="2">
         <v>690.8</v>
@@ -2527,17 +2396,14 @@
       <c r="I44" s="2">
         <v>688.1</v>
       </c>
-      <c r="J44" s="2">
-        <v>6.32</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>133</v>
+      <c r="J44" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>53</v>
@@ -2563,17 +2429,14 @@
       <c r="I45" s="2">
         <v>707.5</v>
       </c>
-      <c r="J45" s="2">
-        <v>4.13</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>135</v>
+      <c r="J45" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>70</v>
@@ -2599,20 +2462,17 @@
       <c r="I46" s="2">
         <v>658</v>
       </c>
-      <c r="J46" s="2">
-        <v>5.24</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>135</v>
+      <c r="J46" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2">
         <v>11</v>
@@ -2635,17 +2495,14 @@
       <c r="I47" s="2">
         <v>664.5</v>
       </c>
-      <c r="J47" s="2">
-        <v>4.18</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>133</v>
+      <c r="J47" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>68</v>
@@ -2671,20 +2528,17 @@
       <c r="I48" s="2">
         <v>684</v>
       </c>
-      <c r="J48" s="2">
-        <v>2.14</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>135</v>
+      <c r="J48" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C49" s="2">
         <v>13</v>
@@ -2699,7 +2553,7 @@
         <v>13</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H49" s="2">
         <v>673.35</v>
@@ -2707,20 +2561,17 @@
       <c r="I49" s="2">
         <v>671.75</v>
       </c>
-      <c r="J49" s="2">
-        <v>2.99</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>133</v>
+      <c r="J49" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" s="2">
         <v>7</v>
@@ -2743,20 +2594,17 @@
       <c r="I50" s="2">
         <v>687.75</v>
       </c>
-      <c r="J50" s="2">
-        <v>3.21</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>133</v>
+      <c r="J50" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" s="2">
         <v>17</v>
@@ -2779,20 +2627,17 @@
       <c r="I51" s="2">
         <v>688.5</v>
       </c>
-      <c r="J51" s="2">
-        <v>7.21</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>133</v>
+      <c r="J51" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52" s="2">
         <v>9</v>
@@ -2815,20 +2660,17 @@
       <c r="I52" s="2">
         <v>681.5</v>
       </c>
-      <c r="J52" s="2">
-        <v>1.96</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>133</v>
+      <c r="J52" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2">
         <v>12</v>
@@ -2851,17 +2693,14 @@
       <c r="I53" s="2">
         <v>747.5</v>
       </c>
-      <c r="J53" s="2">
-        <v>1.37</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>133</v>
+      <c r="J53" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>10</v>
@@ -2887,17 +2726,14 @@
       <c r="I54" s="2">
         <v>683.75</v>
       </c>
-      <c r="J54" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>135</v>
+      <c r="J54" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>50</v>
@@ -2923,17 +2759,14 @@
       <c r="I55" s="2">
         <v>697</v>
       </c>
-      <c r="J55" s="2">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>135</v>
+      <c r="J55" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>43</v>
@@ -2959,20 +2792,17 @@
       <c r="I56" s="2">
         <v>694</v>
       </c>
-      <c r="J56" s="2">
-        <v>2.02</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>135</v>
+      <c r="J56" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C57" s="2">
         <v>22</v>
@@ -2987,7 +2817,7 @@
         <v>22</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H57" s="2">
         <v>684.7</v>
@@ -2995,20 +2825,17 @@
       <c r="I57" s="2">
         <v>681.25</v>
       </c>
-      <c r="J57" s="2">
-        <v>5.42</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>133</v>
+      <c r="J57" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2">
         <v>9</v>
@@ -3031,17 +2858,14 @@
       <c r="I58" s="2">
         <v>685.75</v>
       </c>
-      <c r="J58" s="2">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>133</v>
+      <c r="J58" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
@@ -3067,17 +2891,14 @@
       <c r="I59" s="2">
         <v>656.5</v>
       </c>
-      <c r="J59" s="2">
-        <v>3.26</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>135</v>
+      <c r="J59" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>30</v>
@@ -3103,17 +2924,14 @@
       <c r="I60" s="2">
         <v>694</v>
       </c>
-      <c r="J60" s="2">
-        <v>6.71</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>135</v>
+      <c r="J60" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>47</v>
@@ -3139,17 +2957,14 @@
       <c r="I61" s="2">
         <v>681.75</v>
       </c>
-      <c r="J61" s="2">
-        <v>8.89</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>135</v>
+      <c r="J61" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>52</v>
@@ -3175,17 +2990,14 @@
       <c r="I62" s="2">
         <v>687.75</v>
       </c>
-      <c r="J62" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>135</v>
+      <c r="J62" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>67</v>
@@ -3211,20 +3023,17 @@
       <c r="I63" s="2">
         <v>684</v>
       </c>
-      <c r="J63" s="2">
-        <v>4.54</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>135</v>
+      <c r="J63" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" s="2">
         <v>36</v>
@@ -3247,20 +3056,17 @@
       <c r="I64" s="2">
         <v>696</v>
       </c>
-      <c r="J64" s="2">
-        <v>6.73</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>133</v>
+      <c r="J64" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="2">
         <v>25</v>
@@ -3283,18 +3089,15 @@
       <c r="I65" s="2">
         <v>760</v>
       </c>
-      <c r="J65" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>133</v>
+      <c r="J65" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L65" s="2"/>
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>49</v>
@@ -3320,18 +3123,15 @@
       <c r="I66" s="2">
         <v>697.25</v>
       </c>
-      <c r="J66" s="2">
-        <v>2.09</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>135</v>
+      <c r="J66" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L66" s="2"/>
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>2</v>
@@ -3357,21 +3157,18 @@
       <c r="I67" s="2">
         <v>682.25</v>
       </c>
-      <c r="J67" s="2">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>135</v>
+      <c r="J67" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L67" s="2"/>
       <c r="S67" s="2"/>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C68" s="2">
         <v>39</v>
@@ -3394,18 +3191,15 @@
       <c r="I68" s="2">
         <v>699</v>
       </c>
-      <c r="J68" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>133</v>
+      <c r="J68" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L68" s="2"/>
       <c r="S68" s="2"/>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>34</v>
@@ -3431,21 +3225,18 @@
       <c r="I69" s="2">
         <v>702.8</v>
       </c>
-      <c r="J69" s="2">
-        <v>3.58</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>135</v>
+      <c r="J69" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L69" s="2"/>
       <c r="S69" s="2"/>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C70" s="2">
         <v>37</v>
@@ -3460,7 +3251,7 @@
         <v>36</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H70" s="2">
         <v>712.17</v>
@@ -3468,18 +3259,15 @@
       <c r="I70" s="2">
         <v>708</v>
       </c>
-      <c r="J70" s="2">
-        <v>6.56</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>133</v>
+      <c r="J70" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L70" s="2"/>
       <c r="S70" s="2"/>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>81</v>
@@ -3505,18 +3293,15 @@
       <c r="I71" s="2">
         <v>704</v>
       </c>
-      <c r="J71" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>135</v>
+      <c r="J71" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L71" s="2"/>
       <c r="S71" s="2"/>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>80</v>
@@ -3542,21 +3327,18 @@
       <c r="I72" s="2">
         <v>708.5</v>
       </c>
-      <c r="J72" s="2">
-        <v>6.79</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>135</v>
+      <c r="J72" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L72" s="2"/>
       <c r="S72" s="2"/>
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2">
         <v>14</v>
@@ -3579,18 +3361,15 @@
       <c r="I73" s="2">
         <v>691</v>
       </c>
-      <c r="J73" s="2">
-        <v>6.96</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>133</v>
+      <c r="J73" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L73" s="2"/>
       <c r="S73" s="2"/>
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>76</v>
@@ -3616,21 +3395,18 @@
       <c r="I74" s="2">
         <v>655.5</v>
       </c>
-      <c r="J74" s="2">
-        <v>2.99</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>135</v>
+      <c r="J74" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L74" s="2"/>
       <c r="S74" s="2"/>
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75" s="2">
         <v>30</v>
@@ -3645,7 +3421,7 @@
         <v>30</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H75" s="2">
         <v>690.79</v>
@@ -3653,18 +3429,15 @@
       <c r="I75" s="2">
         <v>688.5</v>
       </c>
-      <c r="J75" s="2">
-        <v>3.49</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>133</v>
+      <c r="J75" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L75" s="2"/>
       <c r="S75" s="2"/>
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>0</v>
@@ -3690,18 +3463,15 @@
       <c r="I76" s="2">
         <v>681.5</v>
       </c>
-      <c r="J76" s="2">
-        <v>11</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>135</v>
+      <c r="J76" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L76" s="2"/>
       <c r="S76" s="2"/>
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>57</v>
@@ -3727,18 +3497,15 @@
       <c r="I77" s="2">
         <v>693</v>
       </c>
-      <c r="J77" s="2">
-        <v>13.19</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>135</v>
+      <c r="J77" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L77" s="2"/>
       <c r="S77" s="2"/>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>51</v>
@@ -3764,21 +3531,18 @@
       <c r="I78" s="2">
         <v>689.5</v>
       </c>
-      <c r="J78" s="2">
-        <v>6.52</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>135</v>
+      <c r="J78" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L78" s="2"/>
       <c r="S78" s="2"/>
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2">
         <v>14</v>
@@ -3801,21 +3565,18 @@
       <c r="I79" s="2">
         <v>682.5</v>
       </c>
-      <c r="J79" s="2">
-        <v>2.96</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>133</v>
+      <c r="J79" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L79" s="2"/>
       <c r="S79" s="2"/>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C80" s="2">
         <v>9</v>
@@ -3838,18 +3599,15 @@
       <c r="I80" s="2">
         <v>684.5</v>
       </c>
-      <c r="J80" s="2">
-        <v>3.66</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>133</v>
+      <c r="J80" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L80" s="2"/>
       <c r="S80" s="2"/>
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>78</v>
@@ -3875,18 +3633,15 @@
       <c r="I81" s="2">
         <v>756.5</v>
       </c>
-      <c r="J81" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="K81" s="4" t="s">
-        <v>135</v>
+      <c r="J81" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L81" s="2"/>
       <c r="S81" s="2"/>
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>18</v>
@@ -3912,18 +3667,15 @@
       <c r="I82" s="2">
         <v>693.5</v>
       </c>
-      <c r="J82" s="2">
-        <v>3.78</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>135</v>
+      <c r="J82" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L82" s="2"/>
       <c r="S82" s="2"/>
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>48</v>
@@ -3949,21 +3701,18 @@
       <c r="I83" s="2">
         <v>686.5</v>
       </c>
-      <c r="J83" s="2">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>135</v>
+      <c r="J83" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L83" s="2"/>
       <c r="S83" s="2"/>
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="2">
         <v>9</v>
@@ -3986,18 +3735,15 @@
       <c r="I84" s="2">
         <v>682.25</v>
       </c>
-      <c r="J84" s="2">
-        <v>1.39</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>133</v>
+      <c r="J84" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L84" s="2"/>
       <c r="S84" s="2"/>
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>79</v>
@@ -4023,18 +3769,15 @@
       <c r="I85" s="2">
         <v>751.5</v>
       </c>
-      <c r="J85" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>135</v>
+      <c r="J85" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L85" s="2"/>
       <c r="S85" s="2"/>
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>40</v>
@@ -4060,20 +3803,17 @@
       <c r="I86" s="2">
         <v>693</v>
       </c>
-      <c r="J86" s="2">
-        <v>7.05</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>135</v>
+      <c r="J86" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2">
         <v>16</v>
@@ -4088,7 +3828,7 @@
         <v>15</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H87" s="2">
         <v>684.85</v>
@@ -4096,21 +3836,18 @@
       <c r="I87" s="2">
         <v>684</v>
       </c>
-      <c r="J87" s="2">
-        <v>1.33</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>133</v>
+      <c r="J87" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L87" s="2"/>
       <c r="S87" s="2"/>
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="2">
         <v>17</v>
@@ -4125,7 +3862,7 @@
         <v>17</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H88" s="2">
         <v>692.71</v>
@@ -4133,18 +3870,15 @@
       <c r="I88" s="2">
         <v>693</v>
       </c>
-      <c r="J88" s="2">
-        <v>5.13</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>133</v>
+      <c r="J88" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L88" s="2"/>
       <c r="S88" s="2"/>
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>32</v>
@@ -4170,17 +3904,14 @@
       <c r="I89" s="2">
         <v>710</v>
       </c>
-      <c r="J89" s="2">
-        <v>5</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>135</v>
+      <c r="J89" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>33</v>
@@ -4206,21 +3937,18 @@
       <c r="I90" s="2">
         <v>691.5</v>
       </c>
-      <c r="J90" s="2">
-        <v>3.23</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>135</v>
+      <c r="J90" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L90" s="2"/>
       <c r="S90" s="2"/>
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91" s="2">
         <v>27</v>
@@ -4243,18 +3971,15 @@
       <c r="I91" s="2">
         <v>690.5</v>
       </c>
-      <c r="J91" s="2">
-        <v>3.46</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>133</v>
+      <c r="J91" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L91" s="2"/>
       <c r="S91" s="2"/>
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>55</v>
@@ -4280,21 +4005,18 @@
       <c r="I92" s="2">
         <v>696</v>
       </c>
-      <c r="J92" s="2">
-        <v>4.16</v>
-      </c>
-      <c r="K92" s="4" t="s">
-        <v>135</v>
+      <c r="J92" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="L92" s="2"/>
       <c r="S92" s="2"/>
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2">
         <v>21</v>
@@ -4317,11 +4039,8 @@
       <c r="I93" s="2">
         <v>671</v>
       </c>
-      <c r="J93" s="2">
-        <v>4.84</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>133</v>
+      <c r="J93" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="L93" s="2"/>
       <c r="S93" s="2"/>

--- a/Busan_Univ/부산대 2022.xlsx
+++ b/Busan_Univ/부산대 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/almini/Documents/vscode/Project/Busan_Univ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA1F320-D94C-F041-82FF-FC44FBBAFC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB69EE3E-7DD3-D64B-814F-8D5813DFBE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{DBD87924-872F-6046-815E-2C2C92919E94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="142">
   <si>
     <t>중어중문학과</t>
   </si>
@@ -446,9 +446,6 @@
     <t>의예과</t>
   </si>
   <si>
-    <t>정보의생명공학대학</t>
-  </si>
-  <si>
     <t>의생명융합공학부</t>
   </si>
   <si>
@@ -476,77 +473,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인문대학</t>
+    <t>인문사회계</t>
+  </si>
+  <si>
+    <t>자연계</t>
+  </si>
+  <si>
+    <t>인문사회계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사회과학대학</t>
+    <t>자연계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자연과학대학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공과대학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사범대학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경영대학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경제통상대학</t>
-  </si>
-  <si>
-    <t>경제통상대학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간호대학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활과학대학</t>
-  </si>
-  <si>
-    <t>생활과학대학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예술대학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생명자원과학대학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나노과학기술대학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치의학전문대학원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한의학전문대학원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보의생명공학대학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약학대학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의과대학</t>
+    <t>예술계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E48BCF-192D-7548-A8AF-6426D46520B3}">
   <dimension ref="A1:S95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -956,7 +897,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>82</v>
@@ -977,18 +918,18 @@
         <v>87</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>63</v>
@@ -1015,13 +956,13 @@
         <v>700</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
@@ -1048,13 +989,13 @@
         <v>689.5</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>37</v>
@@ -1081,13 +1022,13 @@
         <v>691.5</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>38</v>
@@ -1114,13 +1055,13 @@
         <v>686.25</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>39</v>
@@ -1147,13 +1088,13 @@
         <v>685.5</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>58</v>
@@ -1180,13 +1121,13 @@
         <v>698.25</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>117</v>
@@ -1213,13 +1154,13 @@
         <v>688.75</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -1246,13 +1187,13 @@
         <v>682.75</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>109</v>
@@ -1279,13 +1220,13 @@
         <v>697.6</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>62</v>
@@ -1312,13 +1253,13 @@
         <v>697.25</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>60</v>
@@ -1345,13 +1286,13 @@
         <v>689.25</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>127</v>
@@ -1378,13 +1319,13 @@
         <v>688.5</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>46</v>
@@ -1411,13 +1352,13 @@
         <v>687.75</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
@@ -1444,13 +1385,13 @@
         <v>698</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>88</v>
@@ -1477,13 +1418,13 @@
         <v>689</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>107</v>
@@ -1510,13 +1451,13 @@
         <v>699</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>77</v>
@@ -1543,13 +1484,13 @@
         <v>695</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>128</v>
@@ -1576,13 +1517,13 @@
         <v>687.5</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -1609,13 +1550,13 @@
         <v>680.75</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
@@ -1642,13 +1583,13 @@
         <v>689</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>6</v>
@@ -1675,13 +1616,13 @@
         <v>681.5</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>72</v>
@@ -1708,13 +1649,13 @@
         <v>653</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>69</v>
@@ -1741,13 +1682,13 @@
         <v>692</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>115</v>
@@ -1774,13 +1715,13 @@
         <v>688</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
@@ -1807,13 +1748,13 @@
         <v>684.75</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>54</v>
@@ -1840,13 +1781,13 @@
         <v>688.5</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>19</v>
@@ -1873,13 +1814,13 @@
         <v>686</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
@@ -1906,13 +1847,13 @@
         <v>694.25</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>20</v>
@@ -1939,13 +1880,13 @@
         <v>688.5</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
@@ -1972,13 +1913,13 @@
         <v>670.5</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>73</v>
@@ -2005,13 +1946,13 @@
         <v>670</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>75</v>
@@ -2038,13 +1979,13 @@
         <v>661.5</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
@@ -2071,13 +2012,13 @@
         <v>688</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>44</v>
@@ -2100,13 +2041,13 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
@@ -2133,13 +2074,13 @@
         <v>683</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>92</v>
@@ -2166,13 +2107,13 @@
         <v>683.5</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>14</v>
@@ -2199,13 +2140,13 @@
         <v>676.75</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>97</v>
@@ -2232,13 +2173,13 @@
         <v>690.25</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>41</v>
@@ -2265,13 +2206,13 @@
         <v>693</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>103</v>
@@ -2298,13 +2239,13 @@
         <v>696.5</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>124</v>
@@ -2331,13 +2272,13 @@
         <v>665.5</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>56</v>
@@ -2364,13 +2305,13 @@
         <v>689.5</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>100</v>
@@ -2397,13 +2338,13 @@
         <v>688.1</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>53</v>
@@ -2430,13 +2371,13 @@
         <v>707.5</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>70</v>
@@ -2463,13 +2404,13 @@
         <v>658</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>123</v>
@@ -2496,13 +2437,13 @@
         <v>664.5</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>68</v>
@@ -2529,13 +2470,13 @@
         <v>684</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>126</v>
@@ -2562,13 +2503,13 @@
         <v>671.75</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>121</v>
@@ -2595,13 +2536,13 @@
         <v>687.75</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>99</v>
@@ -2628,13 +2569,13 @@
         <v>688.5</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>120</v>
@@ -2661,13 +2602,13 @@
         <v>681.5</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>119</v>
@@ -2694,13 +2635,13 @@
         <v>747.5</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>10</v>
@@ -2727,13 +2668,13 @@
         <v>683.75</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>50</v>
@@ -2760,13 +2701,13 @@
         <v>697</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>43</v>
@@ -2793,13 +2734,13 @@
         <v>694</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>89</v>
@@ -2826,13 +2767,13 @@
         <v>681.25</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>122</v>
@@ -2859,13 +2800,13 @@
         <v>685.75</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
@@ -2892,13 +2833,13 @@
         <v>656.5</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>30</v>
@@ -2925,13 +2866,13 @@
         <v>694</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>47</v>
@@ -2958,13 +2899,13 @@
         <v>681.75</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>52</v>
@@ -2991,13 +2932,13 @@
         <v>687.75</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>67</v>
@@ -3024,16 +2965,16 @@
         <v>684</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="2">
         <v>36</v>
@@ -3057,13 +2998,13 @@
         <v>696</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>129</v>
@@ -3090,14 +3031,14 @@
         <v>760</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L65" s="2"/>
       <c r="S65" s="2"/>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>49</v>
@@ -3124,14 +3065,14 @@
         <v>697.25</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L66" s="2"/>
       <c r="S66" s="2"/>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>2</v>
@@ -3158,14 +3099,14 @@
         <v>682.25</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L67" s="2"/>
       <c r="S67" s="2"/>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>110</v>
@@ -3192,14 +3133,14 @@
         <v>699</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L68" s="2"/>
       <c r="S68" s="2"/>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>34</v>
@@ -3226,14 +3167,14 @@
         <v>702.8</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L69" s="2"/>
       <c r="S69" s="2"/>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>111</v>
@@ -3260,14 +3201,14 @@
         <v>708</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L70" s="2"/>
       <c r="S70" s="2"/>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>81</v>
@@ -3294,14 +3235,14 @@
         <v>704</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L71" s="2"/>
       <c r="S71" s="2"/>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>80</v>
@@ -3328,14 +3269,14 @@
         <v>708.5</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L72" s="2"/>
       <c r="S72" s="2"/>
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>96</v>
@@ -3362,14 +3303,14 @@
         <v>691</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L73" s="2"/>
       <c r="S73" s="2"/>
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>76</v>
@@ -3396,14 +3337,14 @@
         <v>655.5</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L74" s="2"/>
       <c r="S74" s="2"/>
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>113</v>
@@ -3430,14 +3371,14 @@
         <v>688.5</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L75" s="2"/>
       <c r="S75" s="2"/>
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>0</v>
@@ -3464,14 +3405,14 @@
         <v>681.5</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L76" s="2"/>
       <c r="S76" s="2"/>
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>57</v>
@@ -3498,14 +3439,14 @@
         <v>693</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L77" s="2"/>
       <c r="S77" s="2"/>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>51</v>
@@ -3532,14 +3473,14 @@
         <v>689.5</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L78" s="2"/>
       <c r="S78" s="2"/>
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>104</v>
@@ -3566,14 +3507,14 @@
         <v>682.5</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L79" s="2"/>
       <c r="S79" s="2"/>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>93</v>
@@ -3600,14 +3541,14 @@
         <v>684.5</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L80" s="2"/>
       <c r="S80" s="2"/>
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>78</v>
@@ -3634,14 +3575,14 @@
         <v>756.5</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L81" s="2"/>
       <c r="S81" s="2"/>
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>18</v>
@@ -3668,14 +3609,14 @@
         <v>693.5</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L82" s="2"/>
       <c r="S82" s="2"/>
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>48</v>
@@ -3702,14 +3643,14 @@
         <v>686.5</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L83" s="2"/>
       <c r="S83" s="2"/>
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>91</v>
@@ -3736,14 +3677,14 @@
         <v>682.25</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L84" s="2"/>
       <c r="S84" s="2"/>
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>79</v>
@@ -3770,14 +3711,14 @@
         <v>751.5</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L85" s="2"/>
       <c r="S85" s="2"/>
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>40</v>
@@ -3804,13 +3745,13 @@
         <v>693</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>105</v>
@@ -3837,14 +3778,14 @@
         <v>684</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L87" s="2"/>
       <c r="S87" s="2"/>
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>94</v>
@@ -3871,14 +3812,14 @@
         <v>693</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L88" s="2"/>
       <c r="S88" s="2"/>
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>32</v>
@@ -3905,13 +3846,13 @@
         <v>710</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>33</v>
@@ -3938,14 +3879,14 @@
         <v>691.5</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L90" s="2"/>
       <c r="S90" s="2"/>
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>102</v>
@@ -3972,14 +3913,14 @@
         <v>690.5</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L91" s="2"/>
       <c r="S91" s="2"/>
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>55</v>
@@ -4006,14 +3947,14 @@
         <v>696</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L92" s="2"/>
       <c r="S92" s="2"/>
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>125</v>
@@ -4040,7 +3981,7 @@
         <v>671</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L93" s="2"/>
       <c r="S93" s="2"/>
